--- a/target/classes/examples/储罐存储.xlsx
+++ b/target/classes/examples/储罐存储.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab29d1961e783089/修改后模板/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7A1963CAA33CE2902DA3F9C8BFEA707C190693C4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{539F0319-1F32-4F25-8C27-04876423190E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="7590"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>组织机构代码</t>
   </si>
@@ -28,9 +29,6 @@
     <t>企业名称</t>
   </si>
   <si>
-    <t>经度</t>
-  </si>
-  <si>
     <t>储罐类型</t>
   </si>
   <si>
@@ -40,9 +38,6 @@
     <t>区县编码</t>
   </si>
   <si>
-    <t>行业分类</t>
-  </si>
-  <si>
     <t>储罐名称</t>
   </si>
   <si>
@@ -53,9 +48,6 @@
   </si>
   <si>
     <t>SCC编码</t>
-  </si>
-  <si>
-    <t>纬  度</t>
   </si>
   <si>
     <t>VOCs排放量(吨)</t>
@@ -86,14 +78,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>石化行业</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>液化石油气罐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,13 +91,36 @@
   </si>
   <si>
     <t>原油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鲁木齐市米东区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业经度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业纬度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在功能区</t>
+  </si>
+  <si>
+    <t>储罐编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,6 +175,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,201 +458,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="12.25" customWidth="1"/>
-    <col min="6" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="18.375" customWidth="1"/>
-    <col min="14" max="14" width="22.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.89453125" customWidth="1"/>
+    <col min="4" max="4" width="17.26171875" customWidth="1"/>
+    <col min="5" max="6" width="12.26171875" customWidth="1"/>
+    <col min="7" max="8" width="9.734375" customWidth="1"/>
+    <col min="9" max="10" width="15.1015625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.734375" customWidth="1"/>
+    <col min="12" max="12" width="10.26171875" customWidth="1"/>
+    <col min="13" max="13" width="9.47265625" customWidth="1"/>
+    <col min="14" max="14" width="18.3671875" customWidth="1"/>
+    <col min="15" max="15" width="22.3671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1201111401</v>
+      </c>
+      <c r="B2">
+        <v>2015</v>
+      </c>
+      <c r="C2">
+        <v>650102</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>96.235600000000005</v>
+      </c>
+      <c r="H2">
+        <v>68.235600000000005</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1201111401</v>
+      </c>
+      <c r="B3">
+        <v>2016</v>
+      </c>
+      <c r="C3">
+        <v>650102</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>96.235600000000005</v>
+      </c>
+      <c r="H3">
+        <v>68.235600000000005</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1201111401</v>
+      </c>
+      <c r="B4">
+        <v>2017</v>
+      </c>
+      <c r="C4">
+        <v>650102</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>96.235600000000005</v>
+      </c>
+      <c r="H4">
+        <v>68.235600000000005</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="4">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2015</v>
-      </c>
-      <c r="B2">
-        <v>650102</v>
-      </c>
-      <c r="C2">
-        <v>1201111401</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>96.235600000000005</v>
-      </c>
-      <c r="I2">
-        <v>68.235600000000005</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2016</v>
-      </c>
-      <c r="B3">
-        <v>650102</v>
-      </c>
-      <c r="C3">
-        <v>1201111401</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>96.235600000000005</v>
-      </c>
-      <c r="I3">
-        <v>68.235600000000005</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2017</v>
-      </c>
-      <c r="B4">
-        <v>650102</v>
-      </c>
-      <c r="C4">
-        <v>1201111401</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>96.235600000000005</v>
-      </c>
-      <c r="I4">
-        <v>68.235600000000005</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>0.96</v>
       </c>
     </row>
@@ -650,12 +676,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/target/classes/examples/储罐存储.xlsx
+++ b/target/classes/examples/储罐存储.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab29d1961e783089/修改后模板/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_7A1963CAA33CE2902DA3F9C8BFEA707C190693C4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{539F0319-1F32-4F25-8C27-04876423190E}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_7A1963CAA33CE2902DA3F9C8BFEA707C190693C4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90395672-D9E3-4B7C-B015-8D7E028A2D2A}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>

--- a/target/classes/examples/储罐存储.xlsx
+++ b/target/classes/examples/储罐存储.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab29d1961e783089/修改后模板/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yang-\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_7A1963CAA33CE2902DA3F9C8BFEA707C190693C4" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90395672-D9E3-4B7C-B015-8D7E028A2D2A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E28B38-AA22-4386-8070-C49E34E25F1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="储罐存储" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>组织机构代码</t>
   </si>
@@ -74,10 +73,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小红企业三号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>液化石油气罐</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -114,6 +109,18 @@
   </si>
   <si>
     <t>储罐编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红企业一号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1511010010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1511010020</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +190,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,25 +472,26 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.89453125" customWidth="1"/>
-    <col min="4" max="4" width="17.26171875" customWidth="1"/>
-    <col min="5" max="6" width="12.26171875" customWidth="1"/>
-    <col min="7" max="8" width="9.734375" customWidth="1"/>
-    <col min="9" max="10" width="15.1015625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.734375" customWidth="1"/>
-    <col min="12" max="12" width="10.26171875" customWidth="1"/>
-    <col min="13" max="13" width="9.47265625" customWidth="1"/>
-    <col min="14" max="14" width="18.3671875" customWidth="1"/>
-    <col min="15" max="15" width="22.3671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.75" customWidth="1"/>
+    <col min="9" max="10" width="15.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="18.375" customWidth="1"/>
+    <col min="15" max="15" width="22.375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -500,16 +511,16 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -527,142 +538,142 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1201111401</v>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C2">
-        <v>650102</v>
+        <v>210101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>96.235600000000005</v>
+        <v>127</v>
       </c>
       <c r="H2">
-        <v>68.235600000000005</v>
+        <v>41</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="4">
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="O2" s="2">
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1201111401</v>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C3">
-        <v>650102</v>
+        <v>210102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <v>96.235600000000005</v>
+        <v>127</v>
       </c>
       <c r="H3">
-        <v>68.235600000000005</v>
+        <v>41</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="4">
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="O3" s="2">
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1201111401</v>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B4">
         <v>2017</v>
       </c>
       <c r="C4">
-        <v>650102</v>
+        <v>210103</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>96.235600000000005</v>
+        <v>127</v>
       </c>
       <c r="H4">
-        <v>68.235600000000005</v>
+        <v>41</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="4">
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="O4" s="2">
         <v>0.96</v>
@@ -673,17 +684,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
 </file>